--- a/tables_plots/table_hits_wind.xlsx
+++ b/tables_plots/table_hits_wind.xlsx
@@ -491,8 +491,10 @@
           <t>WAS</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>1.66588</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.66588 - (1.41207, 1.96531)</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>1.43519e-09</v>
@@ -523,8 +525,10 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1.26517</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.26517 - (1.17674, 1.36024)</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>1.98913e-10</v>
@@ -555,8 +559,10 @@
           <t>WAS</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>1.10766</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.10766 - (1.07559, 1.14068)</t>
+        </is>
       </c>
       <c r="E4" t="n">
         <v>9.041000000000001e-12</v>
@@ -587,8 +593,10 @@
           <t>SAS</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>0.911931</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.911931 - (0.885, 0.939682)</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>1.6632e-09</v>
@@ -619,8 +627,10 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>1.30723</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.30723 - (1.20257, 1.421)</t>
+        </is>
       </c>
       <c r="E6" t="n">
         <v>3.12662e-10</v>
@@ -651,8 +661,10 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>0.952102</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.952102 - (0.937014, 0.967432)</t>
+        </is>
       </c>
       <c r="E7" t="n">
         <v>1.71636e-09</v>
@@ -683,8 +695,10 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>0.952029</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.952029 - (0.936851, 0.967452)</t>
+        </is>
       </c>
       <c r="E8" t="n">
         <v>2.02811e-09</v>
@@ -715,8 +729,10 @@
           <t>WAS</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1.11714</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.11714 - (1.08405, 1.15123)</t>
+        </is>
       </c>
       <c r="E9" t="n">
         <v>5.16612e-13</v>
@@ -747,8 +763,10 @@
           <t>SAS</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>0.913487</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.913487 - (0.887258, 0.940491)</t>
+        </is>
       </c>
       <c r="E10" t="n">
         <v>1.14581e-09</v>
@@ -779,8 +797,10 @@
           <t>SAS</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>1.21036</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.21036 - (1.13851, 1.28675)</t>
+        </is>
       </c>
       <c r="E11" t="n">
         <v>9.67926e-10</v>
@@ -811,8 +831,10 @@
           <t>SAS</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>0.913471</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.913471 - (0.886685, 0.941067)</t>
+        </is>
       </c>
       <c r="E12" t="n">
         <v>2.52389e-09</v>
@@ -843,8 +865,10 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>1.23444</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.23444 - (1.15216, 1.3226)</t>
+        </is>
       </c>
       <c r="E13" t="n">
         <v>2.1687e-09</v>

--- a/tables_plots/table_hits_wind.xlsx
+++ b/tables_plots/table_hits_wind.xlsx
@@ -517,7 +517,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9q21.33</t>
+          <t>9q21.32</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
